--- a/src/data/Input Data_V02.xlsx
+++ b/src/data/Input Data_V02.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Code\EtabsModeling\src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCA22D83-2419-4D29-997D-9A9F6E100989}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{310F82AA-FAE3-4B68-A3D3-E23273B805E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{15294B1A-75A8-4500-B79B-7345177012BD}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{15294B1A-75A8-4500-B79B-7345177012BD}"/>
   </bookViews>
   <sheets>
     <sheet name="Story" sheetId="6" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="916" uniqueCount="87">
   <si>
     <t>Material</t>
   </si>
@@ -2437,7 +2437,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C77F7E5-272B-4F1D-896D-A2CC534AD1A2}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
@@ -6941,7 +6941,7 @@
   <dimension ref="A1:G47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6951,7 +6951,7 @@
     <col min="3" max="3" width="8.140625" customWidth="1"/>
     <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" customWidth="1"/>
     <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -9768,1115 +9768,976 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FBC072A-C776-409C-B42F-86452975C0CC}">
-  <dimension ref="A1:G47"/>
+  <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.85546875" customWidth="1"/>
-    <col min="2" max="3" width="10.5703125" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="10.5703125" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>62</v>
       </c>
+      <c r="E1" s="2" t="s">
+        <v>64</v>
+      </c>
       <c r="F1" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="G1" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C2" t="s">
-        <v>5</v>
+    <row r="2" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>6</v>
+        <v>66</v>
       </c>
       <c r="F2" t="s">
         <v>66</v>
       </c>
-      <c r="G2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>17</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" t="str">
+        <f>_xlfn.CONCAT("S","_",D4,"_",C4)</f>
+        <v>S_8_5750 psi</v>
+      </c>
+      <c r="C4" t="s">
         <v>61</v>
       </c>
-      <c r="C4">
-        <v>5750</v>
-      </c>
-      <c r="D4" t="str">
-        <f>_xlfn.CONCAT("S","_",E4,"_",B4)</f>
-        <v>S_8_5750 psi</v>
+      <c r="D4">
+        <v>8</v>
       </c>
       <c r="E4">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="F4">
-        <v>35</v>
-      </c>
-      <c r="G4">
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>18</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" t="str">
+        <f>_xlfn.CONCAT("S","_",D5,"_",C5)</f>
+        <v>S_8_5750 psi</v>
+      </c>
+      <c r="C5" t="s">
         <v>61</v>
       </c>
-      <c r="C5">
-        <v>5750</v>
-      </c>
-      <c r="D5" t="str">
-        <f t="shared" ref="D5:D47" si="0">_xlfn.CONCAT("S","_",E5,"_",B5)</f>
-        <v>S_8_5750 psi</v>
+      <c r="D5">
+        <v>8</v>
       </c>
       <c r="E5">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="F5">
-        <v>35</v>
-      </c>
-      <c r="G5">
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>19</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" t="str">
+        <f>_xlfn.CONCAT("S","_",D6,"_",C6)</f>
+        <v>S_8_5750 psi</v>
+      </c>
+      <c r="C6" t="s">
         <v>61</v>
       </c>
-      <c r="C6">
-        <v>5750</v>
-      </c>
-      <c r="D6" t="str">
-        <f t="shared" si="0"/>
-        <v>S_8_5750 psi</v>
+      <c r="D6">
+        <v>8</v>
       </c>
       <c r="E6">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="F6">
-        <v>35</v>
-      </c>
-      <c r="G6">
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>20</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" t="str">
+        <f>_xlfn.CONCAT("S","_",D7,"_",C7)</f>
+        <v>S_8_5750 psi</v>
+      </c>
+      <c r="C7" t="s">
         <v>61</v>
       </c>
-      <c r="C7">
-        <v>5750</v>
-      </c>
-      <c r="D7" t="str">
-        <f t="shared" si="0"/>
-        <v>S_8_5750 psi</v>
+      <c r="D7">
+        <v>8</v>
       </c>
       <c r="E7">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="F7">
-        <v>35</v>
-      </c>
-      <c r="G7">
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>21</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" t="str">
+        <f>_xlfn.CONCAT("S","_",D8,"_",C8)</f>
+        <v>S_8_5750 psi</v>
+      </c>
+      <c r="C8" t="s">
         <v>61</v>
       </c>
-      <c r="C8">
-        <v>5750</v>
-      </c>
-      <c r="D8" t="str">
-        <f t="shared" si="0"/>
-        <v>S_8_5750 psi</v>
+      <c r="D8">
+        <v>8</v>
       </c>
       <c r="E8">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="F8">
-        <v>35</v>
-      </c>
-      <c r="G8">
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>22</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" t="str">
+        <f>_xlfn.CONCAT("S","_",D9,"_",C9)</f>
+        <v>S_8_5750 psi</v>
+      </c>
+      <c r="C9" t="s">
         <v>61</v>
       </c>
-      <c r="C9">
-        <v>5750</v>
-      </c>
-      <c r="D9" t="str">
-        <f t="shared" si="0"/>
-        <v>S_8_5750 psi</v>
+      <c r="D9">
+        <v>8</v>
       </c>
       <c r="E9">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="F9">
-        <v>35</v>
-      </c>
-      <c r="G9">
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>23</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" t="str">
+        <f>_xlfn.CONCAT("S","_",D10,"_",C10)</f>
+        <v>S_8_5750 psi</v>
+      </c>
+      <c r="C10" t="s">
         <v>61</v>
       </c>
-      <c r="C10">
-        <v>5750</v>
-      </c>
-      <c r="D10" t="str">
-        <f t="shared" si="0"/>
-        <v>S_8_5750 psi</v>
+      <c r="D10">
+        <v>8</v>
       </c>
       <c r="E10">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="F10">
-        <v>35</v>
-      </c>
-      <c r="G10">
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>24</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" t="str">
+        <f>_xlfn.CONCAT("S","_",D11,"_",C11)</f>
+        <v>S_8_5750 psi</v>
+      </c>
+      <c r="C11" t="s">
         <v>61</v>
       </c>
-      <c r="C11">
-        <v>5750</v>
-      </c>
-      <c r="D11" t="str">
-        <f t="shared" si="0"/>
-        <v>S_8_5750 psi</v>
+      <c r="D11">
+        <v>8</v>
       </c>
       <c r="E11">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="F11">
-        <v>35</v>
-      </c>
-      <c r="G11">
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>25</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" t="str">
+        <f>_xlfn.CONCAT("S","_",D12,"_",C12)</f>
+        <v>S_8_5750 psi</v>
+      </c>
+      <c r="C12" t="s">
         <v>61</v>
       </c>
-      <c r="C12">
-        <v>5750</v>
-      </c>
-      <c r="D12" t="str">
-        <f t="shared" si="0"/>
-        <v>S_8_5750 psi</v>
+      <c r="D12">
+        <v>8</v>
       </c>
       <c r="E12">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="F12">
-        <v>35</v>
-      </c>
-      <c r="G12">
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>26</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" t="str">
+        <f>_xlfn.CONCAT("S","_",D13,"_",C13)</f>
+        <v>S_8_5750 psi</v>
+      </c>
+      <c r="C13" t="s">
         <v>61</v>
       </c>
-      <c r="C13">
-        <v>5750</v>
-      </c>
-      <c r="D13" t="str">
-        <f t="shared" si="0"/>
-        <v>S_8_5750 psi</v>
+      <c r="D13">
+        <v>8</v>
       </c>
       <c r="E13">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="F13">
-        <v>35</v>
-      </c>
-      <c r="G13">
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>27</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" t="str">
+        <f>_xlfn.CONCAT("S","_",D14,"_",C14)</f>
+        <v>S_8_5750 psi</v>
+      </c>
+      <c r="C14" t="s">
         <v>61</v>
       </c>
-      <c r="C14">
-        <v>5750</v>
-      </c>
-      <c r="D14" t="str">
-        <f t="shared" si="0"/>
-        <v>S_8_5750 psi</v>
+      <c r="D14">
+        <v>8</v>
       </c>
       <c r="E14">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="F14">
-        <v>35</v>
-      </c>
-      <c r="G14">
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>28</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" t="str">
+        <f>_xlfn.CONCAT("S","_",D15,"_",C15)</f>
+        <v>S_8_5750 psi</v>
+      </c>
+      <c r="C15" t="s">
         <v>61</v>
       </c>
-      <c r="C15">
-        <v>5750</v>
-      </c>
-      <c r="D15" t="str">
-        <f t="shared" si="0"/>
-        <v>S_8_5750 psi</v>
+      <c r="D15">
+        <v>8</v>
       </c>
       <c r="E15">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="F15">
-        <v>35</v>
-      </c>
-      <c r="G15">
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>29</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" t="str">
+        <f>_xlfn.CONCAT("S","_",D16,"_",C16)</f>
+        <v>S_8_5750 psi</v>
+      </c>
+      <c r="C16" t="s">
         <v>61</v>
       </c>
-      <c r="C16">
-        <v>5750</v>
-      </c>
-      <c r="D16" t="str">
-        <f t="shared" si="0"/>
+      <c r="D16">
+        <v>8</v>
+      </c>
+      <c r="E16">
+        <v>35</v>
+      </c>
+      <c r="F16">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" t="str">
+        <f>_xlfn.CONCAT("S","_",D17,"_",C17)</f>
         <v>S_8_5750 psi</v>
       </c>
-      <c r="E16">
+      <c r="C17" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17">
         <v>8</v>
       </c>
-      <c r="F16">
+      <c r="E17">
         <v>35</v>
       </c>
-      <c r="G16">
+      <c r="F17">
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17" t="s">
-        <v>61</v>
-      </c>
-      <c r="C17">
-        <v>5750</v>
-      </c>
-      <c r="D17" t="str">
-        <f t="shared" si="0"/>
-        <v>S_8_5750 psi</v>
-      </c>
-      <c r="E17">
-        <v>8</v>
-      </c>
-      <c r="F17">
-        <v>35</v>
-      </c>
-      <c r="G17">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>31</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" t="str">
+        <f>_xlfn.CONCAT("S","_",D18,"_",C18)</f>
+        <v>S_8_5750 psi</v>
+      </c>
+      <c r="C18" t="s">
         <v>61</v>
       </c>
-      <c r="C18">
-        <v>5750</v>
-      </c>
-      <c r="D18" t="str">
-        <f t="shared" si="0"/>
-        <v>S_8_5750 psi</v>
+      <c r="D18">
+        <v>8</v>
       </c>
       <c r="E18">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="F18">
-        <v>35</v>
-      </c>
-      <c r="G18">
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>32</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" t="str">
+        <f>_xlfn.CONCAT("S","_",D19,"_",C19)</f>
+        <v>S_8_5750 psi</v>
+      </c>
+      <c r="C19" t="s">
         <v>61</v>
       </c>
-      <c r="C19">
-        <v>5750</v>
-      </c>
-      <c r="D19" t="str">
-        <f t="shared" si="0"/>
-        <v>S_8_5750 psi</v>
+      <c r="D19">
+        <v>8</v>
       </c>
       <c r="E19">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="F19">
-        <v>35</v>
-      </c>
-      <c r="G19">
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>33</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" t="str">
+        <f>_xlfn.CONCAT("S","_",D20,"_",C20)</f>
+        <v>S_8_5750 psi</v>
+      </c>
+      <c r="C20" t="s">
         <v>61</v>
       </c>
-      <c r="C20">
-        <v>5750</v>
-      </c>
-      <c r="D20" t="str">
-        <f t="shared" si="0"/>
-        <v>S_8_5750 psi</v>
+      <c r="D20">
+        <v>8</v>
       </c>
       <c r="E20">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="F20">
-        <v>35</v>
-      </c>
-      <c r="G20">
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>34</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" t="str">
+        <f>_xlfn.CONCAT("S","_",D21,"_",C21)</f>
+        <v>S_8_5750 psi</v>
+      </c>
+      <c r="C21" t="s">
         <v>61</v>
       </c>
-      <c r="C21">
-        <v>5750</v>
-      </c>
-      <c r="D21" t="str">
-        <f t="shared" si="0"/>
-        <v>S_8_5750 psi</v>
+      <c r="D21">
+        <v>8</v>
       </c>
       <c r="E21">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="F21">
-        <v>35</v>
-      </c>
-      <c r="G21">
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>35</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" t="str">
+        <f>_xlfn.CONCAT("S","_",D22,"_",C22)</f>
+        <v>S_8_5750 psi</v>
+      </c>
+      <c r="C22" t="s">
         <v>61</v>
       </c>
-      <c r="C22">
-        <v>5750</v>
-      </c>
-      <c r="D22" t="str">
-        <f t="shared" si="0"/>
-        <v>S_8_5750 psi</v>
+      <c r="D22">
+        <v>8</v>
       </c>
       <c r="E22">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="F22">
-        <v>35</v>
-      </c>
-      <c r="G22">
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>36</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" t="str">
+        <f>_xlfn.CONCAT("S","_",D23,"_",C23)</f>
+        <v>S_8_5750 psi</v>
+      </c>
+      <c r="C23" t="s">
         <v>61</v>
       </c>
-      <c r="C23">
-        <v>5750</v>
-      </c>
-      <c r="D23" t="str">
-        <f t="shared" si="0"/>
-        <v>S_8_5750 psi</v>
+      <c r="D23">
+        <v>8</v>
       </c>
       <c r="E23">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="F23">
-        <v>35</v>
-      </c>
-      <c r="G23">
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>37</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" t="str">
+        <f>_xlfn.CONCAT("S","_",D24,"_",C24)</f>
+        <v>S_8_5750 psi</v>
+      </c>
+      <c r="C24" t="s">
         <v>61</v>
       </c>
-      <c r="C24">
-        <v>5750</v>
-      </c>
-      <c r="D24" t="str">
-        <f t="shared" si="0"/>
-        <v>S_8_5750 psi</v>
+      <c r="D24">
+        <v>8</v>
       </c>
       <c r="E24">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="F24">
-        <v>35</v>
-      </c>
-      <c r="G24">
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>38</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" t="str">
+        <f>_xlfn.CONCAT("S","_",D25,"_",C25)</f>
+        <v>S_8_5750 psi</v>
+      </c>
+      <c r="C25" t="s">
         <v>61</v>
       </c>
-      <c r="C25">
-        <v>5750</v>
-      </c>
-      <c r="D25" t="str">
-        <f t="shared" si="0"/>
-        <v>S_8_5750 psi</v>
+      <c r="D25">
+        <v>8</v>
       </c>
       <c r="E25">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="F25">
-        <v>35</v>
-      </c>
-      <c r="G25">
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>39</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" t="str">
+        <f>_xlfn.CONCAT("S","_",D26,"_",C26)</f>
+        <v>S_8_5750 psi</v>
+      </c>
+      <c r="C26" t="s">
         <v>61</v>
       </c>
-      <c r="C26">
-        <v>5750</v>
-      </c>
-      <c r="D26" t="str">
-        <f t="shared" si="0"/>
-        <v>S_8_5750 psi</v>
+      <c r="D26">
+        <v>8</v>
       </c>
       <c r="E26">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="F26">
-        <v>35</v>
-      </c>
-      <c r="G26">
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>40</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" t="str">
+        <f>_xlfn.CONCAT("S","_",D27,"_",C27)</f>
+        <v>S_8_5750 psi</v>
+      </c>
+      <c r="C27" t="s">
         <v>61</v>
       </c>
-      <c r="C27">
-        <v>5750</v>
-      </c>
-      <c r="D27" t="str">
-        <f t="shared" si="0"/>
-        <v>S_8_5750 psi</v>
+      <c r="D27">
+        <v>8</v>
       </c>
       <c r="E27">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="F27">
-        <v>35</v>
-      </c>
-      <c r="G27">
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>41</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" t="str">
+        <f>_xlfn.CONCAT("S","_",D28,"_",C28)</f>
+        <v>S_8_5750 psi</v>
+      </c>
+      <c r="C28" t="s">
         <v>61</v>
       </c>
-      <c r="C28">
-        <v>5750</v>
-      </c>
-      <c r="D28" t="str">
-        <f t="shared" si="0"/>
-        <v>S_8_5750 psi</v>
+      <c r="D28">
+        <v>8</v>
       </c>
       <c r="E28">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="F28">
-        <v>35</v>
-      </c>
-      <c r="G28">
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>42</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" t="str">
+        <f>_xlfn.CONCAT("S","_",D29,"_",C29)</f>
+        <v>S_8_5750 psi</v>
+      </c>
+      <c r="C29" t="s">
         <v>61</v>
       </c>
-      <c r="C29">
-        <v>5750</v>
-      </c>
-      <c r="D29" t="str">
-        <f t="shared" si="0"/>
-        <v>S_8_5750 psi</v>
+      <c r="D29">
+        <v>8</v>
       </c>
       <c r="E29">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="F29">
-        <v>35</v>
-      </c>
-      <c r="G29">
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>43</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" t="str">
+        <f>_xlfn.CONCAT("S","_",D30,"_",C30)</f>
+        <v>S_8_5750 psi</v>
+      </c>
+      <c r="C30" t="s">
         <v>61</v>
       </c>
-      <c r="C30">
-        <v>5750</v>
-      </c>
-      <c r="D30" t="str">
-        <f t="shared" si="0"/>
-        <v>S_8_5750 psi</v>
+      <c r="D30">
+        <v>8</v>
       </c>
       <c r="E30">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="F30">
-        <v>35</v>
-      </c>
-      <c r="G30">
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>44</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" t="str">
+        <f>_xlfn.CONCAT("S","_",D31,"_",C31)</f>
+        <v>S_8_5750 psi</v>
+      </c>
+      <c r="C31" t="s">
         <v>61</v>
       </c>
-      <c r="C31">
-        <v>5750</v>
-      </c>
-      <c r="D31" t="str">
-        <f t="shared" si="0"/>
-        <v>S_8_5750 psi</v>
+      <c r="D31">
+        <v>8</v>
       </c>
       <c r="E31">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="F31">
-        <v>35</v>
-      </c>
-      <c r="G31">
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>45</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" t="str">
+        <f>_xlfn.CONCAT("S","_",D32,"_",C32)</f>
+        <v>S_8_5750 psi</v>
+      </c>
+      <c r="C32" t="s">
         <v>61</v>
       </c>
-      <c r="C32">
-        <v>5750</v>
-      </c>
-      <c r="D32" t="str">
-        <f t="shared" si="0"/>
-        <v>S_8_5750 psi</v>
+      <c r="D32">
+        <v>8</v>
       </c>
       <c r="E32">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="F32">
-        <v>35</v>
-      </c>
-      <c r="G32">
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>46</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" t="str">
+        <f>_xlfn.CONCAT("S","_",D33,"_",C33)</f>
+        <v>S_8_5750 psi</v>
+      </c>
+      <c r="C33" t="s">
         <v>61</v>
       </c>
-      <c r="C33">
-        <v>5750</v>
-      </c>
-      <c r="D33" t="str">
-        <f t="shared" si="0"/>
-        <v>S_8_5750 psi</v>
+      <c r="D33">
+        <v>8</v>
       </c>
       <c r="E33">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="F33">
-        <v>35</v>
-      </c>
-      <c r="G33">
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>47</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" t="str">
+        <f>_xlfn.CONCAT("S","_",D34,"_",C34)</f>
+        <v>S_8_5750 psi</v>
+      </c>
+      <c r="C34" t="s">
         <v>61</v>
       </c>
-      <c r="C34">
-        <v>5750</v>
-      </c>
-      <c r="D34" t="str">
-        <f t="shared" si="0"/>
-        <v>S_8_5750 psi</v>
+      <c r="D34">
+        <v>8</v>
       </c>
       <c r="E34">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="F34">
-        <v>35</v>
-      </c>
-      <c r="G34">
         <v>50</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>48</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" t="str">
+        <f>_xlfn.CONCAT("S","_",D35,"_",C35)</f>
+        <v>S_8_5750 psi</v>
+      </c>
+      <c r="C35" t="s">
         <v>61</v>
       </c>
-      <c r="C35">
-        <v>5750</v>
-      </c>
-      <c r="D35" t="str">
-        <f t="shared" si="0"/>
-        <v>S_8_5750 psi</v>
+      <c r="D35">
+        <v>8</v>
       </c>
       <c r="E35">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="F35">
-        <v>35</v>
-      </c>
-      <c r="G35">
         <v>50</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>49</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" t="str">
+        <f>_xlfn.CONCAT("S","_",D36,"_",C36)</f>
+        <v>S_8_5750 psi</v>
+      </c>
+      <c r="C36" t="s">
         <v>61</v>
       </c>
-      <c r="C36">
-        <v>5750</v>
-      </c>
-      <c r="D36" t="str">
-        <f t="shared" si="0"/>
-        <v>S_8_5750 psi</v>
+      <c r="D36">
+        <v>8</v>
       </c>
       <c r="E36">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="F36">
-        <v>35</v>
-      </c>
-      <c r="G36">
         <v>50</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>50</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" t="str">
+        <f>_xlfn.CONCAT("S","_",D37,"_",C37)</f>
+        <v>S_8_5750 psi</v>
+      </c>
+      <c r="C37" t="s">
         <v>61</v>
       </c>
-      <c r="C37">
-        <v>5750</v>
-      </c>
-      <c r="D37" t="str">
-        <f t="shared" si="0"/>
-        <v>S_8_5750 psi</v>
+      <c r="D37">
+        <v>8</v>
       </c>
       <c r="E37">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="F37">
-        <v>35</v>
-      </c>
-      <c r="G37">
         <v>50</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>51</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" t="str">
+        <f>_xlfn.CONCAT("S","_",D38,"_",C38)</f>
+        <v>S_8_5750 psi</v>
+      </c>
+      <c r="C38" t="s">
         <v>61</v>
       </c>
-      <c r="C38">
-        <v>5750</v>
-      </c>
-      <c r="D38" t="str">
-        <f t="shared" si="0"/>
-        <v>S_8_5750 psi</v>
+      <c r="D38">
+        <v>8</v>
       </c>
       <c r="E38">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="F38">
-        <v>35</v>
-      </c>
-      <c r="G38">
         <v>50</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>52</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" t="str">
+        <f>_xlfn.CONCAT("S","_",D39,"_",C39)</f>
+        <v>S_8_5750 psi</v>
+      </c>
+      <c r="C39" t="s">
         <v>61</v>
       </c>
-      <c r="C39">
-        <v>5750</v>
-      </c>
-      <c r="D39" t="str">
-        <f t="shared" si="0"/>
-        <v>S_8_5750 psi</v>
+      <c r="D39">
+        <v>8</v>
       </c>
       <c r="E39">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="F39">
-        <v>35</v>
-      </c>
-      <c r="G39">
         <v>50</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>53</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" t="str">
+        <f>_xlfn.CONCAT("S","_",D40,"_",C40)</f>
+        <v>S_8_5750 psi</v>
+      </c>
+      <c r="C40" t="s">
         <v>61</v>
       </c>
-      <c r="C40">
-        <v>5750</v>
-      </c>
-      <c r="D40" t="str">
-        <f t="shared" si="0"/>
-        <v>S_8_5750 psi</v>
+      <c r="D40">
+        <v>8</v>
       </c>
       <c r="E40">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="F40">
-        <v>35</v>
-      </c>
-      <c r="G40">
         <v>50</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>54</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" t="str">
+        <f>_xlfn.CONCAT("S","_",D41,"_",C41)</f>
+        <v>S_8_5750 psi</v>
+      </c>
+      <c r="C41" t="s">
         <v>61</v>
       </c>
-      <c r="C41">
-        <v>5750</v>
-      </c>
-      <c r="D41" t="str">
-        <f t="shared" si="0"/>
-        <v>S_8_5750 psi</v>
+      <c r="D41">
+        <v>8</v>
       </c>
       <c r="E41">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="F41">
-        <v>35</v>
-      </c>
-      <c r="G41">
         <v>50</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>55</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" t="str">
+        <f>_xlfn.CONCAT("S","_",D42,"_",C42)</f>
+        <v>S_8_5750 psi</v>
+      </c>
+      <c r="C42" t="s">
         <v>61</v>
       </c>
-      <c r="C42">
-        <v>5750</v>
-      </c>
-      <c r="D42" t="str">
-        <f t="shared" si="0"/>
-        <v>S_8_5750 psi</v>
+      <c r="D42">
+        <v>8</v>
       </c>
       <c r="E42">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="F42">
-        <v>35</v>
-      </c>
-      <c r="G42">
         <v>50</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>56</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" t="str">
+        <f>_xlfn.CONCAT("S","_",D43,"_",C43)</f>
+        <v>S_8_5750 psi</v>
+      </c>
+      <c r="C43" t="s">
         <v>61</v>
       </c>
-      <c r="C43">
-        <v>5750</v>
-      </c>
-      <c r="D43" t="str">
-        <f t="shared" si="0"/>
-        <v>S_8_5750 psi</v>
+      <c r="D43">
+        <v>8</v>
       </c>
       <c r="E43">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="F43">
-        <v>35</v>
-      </c>
-      <c r="G43">
         <v>50</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>57</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" t="str">
+        <f>_xlfn.CONCAT("S","_",D44,"_",C44)</f>
+        <v>S_8_5750 psi</v>
+      </c>
+      <c r="C44" t="s">
         <v>61</v>
       </c>
-      <c r="C44">
-        <v>5750</v>
-      </c>
-      <c r="D44" t="str">
-        <f t="shared" si="0"/>
-        <v>S_8_5750 psi</v>
+      <c r="D44">
+        <v>8</v>
       </c>
       <c r="E44">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="F44">
-        <v>35</v>
-      </c>
-      <c r="G44">
         <v>50</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>58</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" t="str">
+        <f>_xlfn.CONCAT("S","_",D45,"_",C45)</f>
+        <v>S_8_5750 psi</v>
+      </c>
+      <c r="C45" t="s">
         <v>61</v>
       </c>
-      <c r="C45">
-        <v>5750</v>
-      </c>
-      <c r="D45" t="str">
-        <f t="shared" si="0"/>
-        <v>S_8_5750 psi</v>
+      <c r="D45">
+        <v>8</v>
       </c>
       <c r="E45">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="F45">
-        <v>35</v>
-      </c>
-      <c r="G45">
         <v>50</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>59</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" t="str">
+        <f>_xlfn.CONCAT("S","_",D46,"_",C46)</f>
+        <v>S_8_5750 psi</v>
+      </c>
+      <c r="C46" t="s">
         <v>61</v>
       </c>
-      <c r="C46">
-        <v>5750</v>
-      </c>
-      <c r="D46" t="str">
-        <f t="shared" si="0"/>
-        <v>S_8_5750 psi</v>
+      <c r="D46">
+        <v>8</v>
       </c>
       <c r="E46">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="F46">
-        <v>35</v>
-      </c>
-      <c r="G46">
         <v>50</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>60</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" t="str">
+        <f>_xlfn.CONCAT("S","_",D47,"_",C47)</f>
+        <v>S_8_5750 psi</v>
+      </c>
+      <c r="C47" t="s">
         <v>61</v>
       </c>
-      <c r="C47">
-        <v>5750</v>
-      </c>
-      <c r="D47" t="str">
-        <f t="shared" si="0"/>
-        <v>S_8_5750 psi</v>
+      <c r="D47">
+        <v>8</v>
       </c>
       <c r="E47">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="F47">
-        <v>35</v>
-      </c>
-      <c r="G47">
         <v>50</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E4:E47">
+  <conditionalFormatting sqref="D4:D47">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
